--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
+  <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
     <s:workbookView activeTab="0"/>
   </s:bookViews>
@@ -73,7 +73,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normale" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -369,14 +369,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -417,22 +433,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -8,6 +8,7 @@
   <s:sheets>
     <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <s:sheet name="prova" sheetId="2" r:id="rId2"/>
+    <s:sheet name="test" sheetId="3" r:id="rId3"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -379,17 +380,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>220</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -454,4 +455,63 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>210</v>
+      </c>
+      <c r="D2" t="n">
+        <v>310</v>
+      </c>
+      <c r="E2" t="n">
+        <v>110</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -7,8 +7,10 @@
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <s:sheet name="prova" sheetId="2" r:id="rId2"/>
-    <s:sheet name="test" sheetId="3" r:id="rId3"/>
+    <s:sheet name="prova_1" sheetId="2" r:id="rId2"/>
+    <s:sheet name="prova_2" sheetId="3" r:id="rId3"/>
+    <s:sheet name="prova_11" sheetId="4" r:id="rId4"/>
+    <s:sheet name="test" sheetId="5" r:id="rId5"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -380,17 +382,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>310</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -434,22 +436,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="E2" t="n">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.91</v>
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -493,22 +495,140 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="n">
         <v>210</v>
       </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
       <c r="D2" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="E2" t="n">
-        <v>110</v>
+        <v>-100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.35</v>
+        <v>-0.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-21</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <s:sheet name="prova_1" sheetId="2" r:id="rId2"/>
-    <s:sheet name="prova_2" sheetId="3" r:id="rId3"/>
-    <s:sheet name="prova_11" sheetId="4" r:id="rId4"/>
-    <s:sheet name="test" sheetId="5" r:id="rId5"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Utente\Progetti\A_16001\COMPFAT\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E54C891-E91E-43F9-A0B3-046CF63BDC73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3510" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="prova_1" sheetId="2" r:id="rId2"/>
+    <sheet name="prova_2" sheetId="3" r:id="rId3"/>
+    <sheet name="prova_11" sheetId="4" r:id="rId4"/>
+    <sheet name="test" sheetId="5" r:id="rId5"/>
+    <sheet name="hhh" sheetId="6" r:id="rId6"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>range</t>
   </si>
@@ -41,20 +48,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,16 +76,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normale" xfId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -367,54 +381,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="n">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>-210</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="n">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,46 +478,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>210</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>110</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-100</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-0.91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,46 +531,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>220</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>-100</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-210</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,46 +584,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>210</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>110</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-100</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-0.91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,27 +637,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>220</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>-100</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-210</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>220</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>-100</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>-210</v>
+      </c>
+      <c r="F2">
+        <v>-21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>